--- a/GA_bNa_bCa_NaK/Errors_ctrl3.xlsx
+++ b/GA_bNa_bCa_NaK/Errors_ctrl3.xlsx
@@ -447,634 +447,634 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>420587.5679625347</v>
+        <v>446934.2323468363</v>
       </c>
       <c r="B2" t="n">
-        <v>9200.428031265921</v>
+        <v>4425.64857784696</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>409680.0008578873</v>
+        <v>458623.6211076286</v>
       </c>
       <c r="B3" t="n">
-        <v>70608.79994946792</v>
+        <v>72656.1307316756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>374503.5595045683</v>
+        <v>430588.8550818269</v>
       </c>
       <c r="B4" t="n">
-        <v>22636.92108454621</v>
+        <v>14230.54578426651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>360328.749509629</v>
+        <v>397902.9881270699</v>
       </c>
       <c r="B5" t="n">
-        <v>24384.94680382779</v>
+        <v>13704.31166959741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>340876.5314141856</v>
+        <v>384905.4351096661</v>
       </c>
       <c r="B6" t="n">
-        <v>27029.33334028795</v>
+        <v>5176.353879483197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>330576.7408193195</v>
+        <v>363262.8875738145</v>
       </c>
       <c r="B7" t="n">
-        <v>6468.849281229186</v>
+        <v>17910.31057318901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>287124.3586133171</v>
+        <v>336628.1429703298</v>
       </c>
       <c r="B8" t="n">
-        <v>6522.418308694939</v>
+        <v>6380.925757193265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>274020.1417393307</v>
+        <v>323659.4256979584</v>
       </c>
       <c r="B9" t="n">
-        <v>8944.468820580445</v>
+        <v>7963.456757078561</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>268042.9163984772</v>
+        <v>303173.9195259535</v>
       </c>
       <c r="B10" t="n">
-        <v>8819.694778697411</v>
+        <v>8827.190315551632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>264914.0188609061</v>
+        <v>295272.8846480824</v>
       </c>
       <c r="B11" t="n">
-        <v>7732.275546087992</v>
+        <v>6186.889222962388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>260887.6846125661</v>
+        <v>259688.8022928504</v>
       </c>
       <c r="B12" t="n">
-        <v>12342.45501336315</v>
+        <v>4202.490119774595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>225141.0052751036</v>
+        <v>284145.7243690009</v>
       </c>
       <c r="B13" t="n">
-        <v>8944.626710421089</v>
+        <v>3403.459183743039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>211204.383196308</v>
+        <v>300151.6654982144</v>
       </c>
       <c r="B14" t="n">
-        <v>5599.82360980234</v>
+        <v>4422.844576124892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>159178.6452723313</v>
+        <v>252325.5381244195</v>
       </c>
       <c r="B15" t="n">
-        <v>5828.392645591551</v>
+        <v>3102.675838311435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>123687.3276218067</v>
+        <v>235313.7455491666</v>
       </c>
       <c r="B16" t="n">
-        <v>4836.029631568794</v>
+        <v>2706.245933942858</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>149897.318620813</v>
+        <v>198697.3932665976</v>
       </c>
       <c r="B17" t="n">
-        <v>4854.356283674092</v>
+        <v>3085.659703612537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>141356.2655016734</v>
+        <v>169523.3697454102</v>
       </c>
       <c r="B18" t="n">
-        <v>4783.220529878994</v>
+        <v>3099.570240021728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>145896.7223197894</v>
+        <v>145549.8993686205</v>
       </c>
       <c r="B19" t="n">
-        <v>5077.293500602838</v>
+        <v>3082.013344163011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>125838.3248070051</v>
+        <v>104025.9852453686</v>
       </c>
       <c r="B20" t="n">
-        <v>5315.549263786638</v>
+        <v>2498.413815697233</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104548.1747312497</v>
+        <v>128369.7382648476</v>
       </c>
       <c r="B21" t="n">
-        <v>5189.812647143324</v>
+        <v>2422.512453924911</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104172.5713571088</v>
+        <v>118644.4840997248</v>
       </c>
       <c r="B22" t="n">
-        <v>4915.63903685348</v>
+        <v>2382.767820641858</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>60333.55501259029</v>
+        <v>99180.01055917289</v>
       </c>
       <c r="B23" t="n">
-        <v>4284.913553987542</v>
+        <v>2531.972083594829</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102718.7427976402</v>
+        <v>74914.23554029466</v>
       </c>
       <c r="B24" t="n">
-        <v>4406.558142419581</v>
+        <v>2671.954600253778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88226.02392845506</v>
+        <v>37350.26504144513</v>
       </c>
       <c r="B25" t="n">
-        <v>4317.96201746612</v>
+        <v>2509.713732222395</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>95239.0655843032</v>
+        <v>38780.13753129716</v>
       </c>
       <c r="B26" t="n">
-        <v>4436.654540238852</v>
+        <v>2382.115164505209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>66405.9942998753</v>
+        <v>49899.3386780261</v>
       </c>
       <c r="B27" t="n">
-        <v>4287.722455133507</v>
+        <v>2519.205594495063</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>77512.38083226113</v>
+        <v>24991.22594808273</v>
       </c>
       <c r="B28" t="n">
-        <v>4164.676860915107</v>
+        <v>2301.803464466858</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>77237.25000987672</v>
+        <v>23393.46720286763</v>
       </c>
       <c r="B29" t="n">
-        <v>4152.389085928477</v>
+        <v>2199.292671308501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>47399.43823136632</v>
+        <v>35122.12892561992</v>
       </c>
       <c r="B30" t="n">
-        <v>4164.167678454369</v>
+        <v>2249.130487309962</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33371.7436466202</v>
+        <v>18135.30743361387</v>
       </c>
       <c r="B31" t="n">
-        <v>3956.884807109601</v>
+        <v>2249.130487309962</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>51270.93466095754</v>
+        <v>30783.21961071794</v>
       </c>
       <c r="B32" t="n">
-        <v>3783.912960714905</v>
+        <v>2136.946950970774</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29946.82610022696</v>
+        <v>24966.15487826869</v>
       </c>
       <c r="B33" t="n">
-        <v>3738.63335451099</v>
+        <v>1926.930687188848</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23919.3360977162</v>
+        <v>27473.87246076942</v>
       </c>
       <c r="B34" t="n">
-        <v>3653.462835808053</v>
+        <v>1852.284617333421</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>31955.27443865105</v>
+        <v>34959.86173056128</v>
       </c>
       <c r="B35" t="n">
-        <v>3760.823078799722</v>
+        <v>1995.840282402312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36214.54017396893</v>
+        <v>15699.69038973822</v>
       </c>
       <c r="B36" t="n">
-        <v>3730.577164409655</v>
+        <v>1996.697722295726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27509.8809172093</v>
+        <v>24958.4002118732</v>
       </c>
       <c r="B37" t="n">
-        <v>3766.778551657463</v>
+        <v>2004.141777388214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>43613.65226506886</v>
+        <v>16063.60523595806</v>
       </c>
       <c r="B38" t="n">
-        <v>3708.67839875637</v>
+        <v>1890.431182469708</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21225.5767402601</v>
+        <v>25766.72627916513</v>
       </c>
       <c r="B39" t="n">
-        <v>3668.392887140732</v>
+        <v>1721.903214448325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15151.2010516414</v>
+        <v>19157.52422099773</v>
       </c>
       <c r="B40" t="n">
-        <v>3484.447217365639</v>
+        <v>1751.039864685837</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>35487.02975736687</v>
+        <v>21529.54109434389</v>
       </c>
       <c r="B41" t="n">
-        <v>3535.056098932348</v>
+        <v>1742.386199044724</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>25823.26067478038</v>
+        <v>15776.03953032606</v>
       </c>
       <c r="B42" t="n">
-        <v>3465.988280650163</v>
+        <v>1704.525679233169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>27829.91724922435</v>
+        <v>19976.89910220039</v>
       </c>
       <c r="B43" t="n">
-        <v>3279.760636701419</v>
+        <v>1655.343704765473</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>28936.0514872682</v>
+        <v>24327.22955723919</v>
       </c>
       <c r="B44" t="n">
-        <v>3279.760636701419</v>
+        <v>1587.459250307796</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>40146.10114125832</v>
+        <v>9698.714807359043</v>
       </c>
       <c r="B45" t="n">
-        <v>3158.240314178541</v>
+        <v>1707.29158414535</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>25273.9887017334</v>
+        <v>19363.91471086294</v>
       </c>
       <c r="B46" t="n">
-        <v>3205.007556674171</v>
+        <v>1654.818622010475</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37407.21148802482</v>
+        <v>9380.813609230288</v>
       </c>
       <c r="B47" t="n">
-        <v>2948.689434906532</v>
+        <v>1454.082235452798</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24909.64882079857</v>
+        <v>7360.584810221881</v>
       </c>
       <c r="B48" t="n">
-        <v>2948.613525056939</v>
+        <v>1481.578811509564</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22469.06283035314</v>
+        <v>12940.36054702533</v>
       </c>
       <c r="B49" t="n">
-        <v>2775.767502712723</v>
+        <v>1535.60077038675</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>36142.8409980273</v>
+        <v>32425.26407408843</v>
       </c>
       <c r="B50" t="n">
-        <v>2797.211915342287</v>
+        <v>1356.063100996226</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>33063.21422218077</v>
+        <v>12439.05048190749</v>
       </c>
       <c r="B51" t="n">
-        <v>2809.011771373901</v>
+        <v>1440.345008569849</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>40782.97351878481</v>
+        <v>20084.59739565444</v>
       </c>
       <c r="B52" t="n">
-        <v>2787.116807411689</v>
+        <v>1441.866289515433</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7986.896247111984</v>
+        <v>22289.91787104643</v>
       </c>
       <c r="B53" t="n">
-        <v>2667.45232942585</v>
+        <v>1414.082836396161</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>54711.58573811353</v>
+        <v>13327.74645137602</v>
       </c>
       <c r="B54" t="n">
-        <v>2669.008796326782</v>
+        <v>1480.62858962813</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>44867.16851843298</v>
+        <v>14393.10112715342</v>
       </c>
       <c r="B55" t="n">
-        <v>2545.363503158815</v>
+        <v>1495.411336246302</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>33078.8986377771</v>
+        <v>15585.60276070151</v>
       </c>
       <c r="B56" t="n">
-        <v>2534.148274296976</v>
+        <v>1548.361210614481</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55984.39272943808</v>
+        <v>14689.27012072614</v>
       </c>
       <c r="B57" t="n">
-        <v>2322.208254359849</v>
+        <v>1547.638862292701</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>37692.53466117084</v>
+        <v>22687.84951099534</v>
       </c>
       <c r="B58" t="n">
-        <v>2282.679241143405</v>
+        <v>1394.56931116583</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>53919.0172806744</v>
+        <v>22317.96251928913</v>
       </c>
       <c r="B59" t="n">
-        <v>2394.422858668745</v>
+        <v>1415.764488560765</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>44974.28745469623</v>
+        <v>31299.24768622061</v>
       </c>
       <c r="B60" t="n">
-        <v>2407.963805670794</v>
+        <v>1426.743529386806</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>63387.35467461906</v>
+        <v>14825.80021172156</v>
       </c>
       <c r="B61" t="n">
-        <v>2306.593839200756</v>
+        <v>1434.070168692946</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>35129.73620046527</v>
+        <v>9091.702501931468</v>
       </c>
       <c r="B62" t="n">
-        <v>2194.329001537249</v>
+        <v>1372.854437613461</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>75159.86530184119</v>
+        <v>25107.79456228663</v>
       </c>
       <c r="B63" t="n">
-        <v>2125.771891959117</v>
+        <v>1330.136771410125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>40711.78564552406</v>
+        <v>16751.51868192181</v>
       </c>
       <c r="B64" t="n">
-        <v>2175.384564388928</v>
+        <v>1348.127513632917</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>27195.6849213641</v>
+        <v>16770.41110720274</v>
       </c>
       <c r="B65" t="n">
-        <v>2080.849875177029</v>
+        <v>1284.534136777807</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>25079.46620537003</v>
+        <v>21084.06891608019</v>
       </c>
       <c r="B66" t="n">
-        <v>1840.946360446563</v>
+        <v>1186.006924576409</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>69221.12413679114</v>
+        <v>19903.61294972272</v>
       </c>
       <c r="B67" t="n">
-        <v>1882.981599033755</v>
+        <v>1294.038196215168</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34698.8128987987</v>
+        <v>7138.180419867384</v>
       </c>
       <c r="B68" t="n">
-        <v>1907.589930228962</v>
+        <v>1247.531070132476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>65015.72422625154</v>
+        <v>19795.16876691741</v>
       </c>
       <c r="B69" t="n">
-        <v>2055.756142121863</v>
+        <v>1258.050292048478</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>61310.18050138299</v>
+        <v>5117.423167930837</v>
       </c>
       <c r="B70" t="n">
-        <v>1890.133544259033</v>
+        <v>1178.509655460282</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>78211.00210841965</v>
+        <v>16084.87610320311</v>
       </c>
       <c r="B71" t="n">
-        <v>1260.987710667497</v>
+        <v>1178.509655460282</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>59764.58008852678</v>
+        <v>32745.93901404445</v>
       </c>
       <c r="B72" t="n">
-        <v>1857.083931888124</v>
+        <v>1173.036980911244</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71150.34528671946</v>
+        <v>12727.11220835981</v>
       </c>
       <c r="B73" t="n">
-        <v>1857.879120324243</v>
+        <v>1158.604965520285</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>81121.62952617706</v>
+        <v>17345.08445300343</v>
       </c>
       <c r="B74" t="n">
-        <v>1524.304837795732</v>
+        <v>998.9082333171662</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>66538.3058448032</v>
+        <v>24679.49469891427</v>
       </c>
       <c r="B75" t="n">
-        <v>1519.705789781896</v>
+        <v>1116.857174144838</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>70357.1458282001</v>
+        <v>25253.33361954039</v>
       </c>
       <c r="B76" t="n">
-        <v>1637.251608086487</v>
+        <v>1107.043880122586</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>92687.97028348128</v>
+        <v>6953.745396039774</v>
       </c>
       <c r="B77" t="n">
-        <v>1637.251608086487</v>
+        <v>1111.768134983417</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>149310.3943861246</v>
+        <v>17428.83086565085</v>
       </c>
       <c r="B78" t="n">
-        <v>1707.768799993377</v>
+        <v>1088.989961550031</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>117458.8510924333</v>
+        <v>16823.5133290842</v>
       </c>
       <c r="B79" t="n">
-        <v>1614.690746842886</v>
+        <v>1044.21536005344</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>92227.54576106796</v>
+        <v>9742.124528631275</v>
       </c>
       <c r="B80" t="n">
-        <v>1470.877418077621</v>
+        <v>1004.609607075693</v>
       </c>
     </row>
   </sheetData>
